--- a/out/CE/falselink/Figori_algorithm_5.xlsx
+++ b/out/CE/falselink/Figori_algorithm_5.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.82074999999999998</v>
+        <v>0.80864999999999998</v>
       </c>
       <c r="B1">
-        <v>0.78774999999999995</v>
+        <v>0.80135000000000001</v>
       </c>
       <c r="C1">
-        <v>0.80115000000000003</v>
+        <v>0.81054999999999999</v>
       </c>
       <c r="D1">
+        <v>0.80584999999999996</v>
+      </c>
+      <c r="E1">
+        <v>0.78564999999999996</v>
+      </c>
+      <c r="F1">
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="G1">
+        <v>0.81235000000000002</v>
+      </c>
+      <c r="H1">
+        <v>0.80994999999999995</v>
+      </c>
+      <c r="I1">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="J1">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="K1">
+        <v>0.81005000000000005</v>
+      </c>
+      <c r="L1">
+        <v>0.79684999999999995</v>
+      </c>
+      <c r="M1">
+        <v>0.78054999999999997</v>
+      </c>
+      <c r="N1">
+        <v>0.81694999999999995</v>
+      </c>
+      <c r="O1">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="P1">
+        <v>0.82055</v>
+      </c>
+      <c r="Q1">
+        <v>0.78954999999999997</v>
+      </c>
+      <c r="R1">
+        <v>0.80745</v>
+      </c>
+      <c r="S1">
+        <v>0.80745</v>
+      </c>
+      <c r="T1">
         <v>0.80254999999999999</v>
       </c>
-      <c r="E1">
-        <v>0.80694999999999995</v>
-      </c>
-      <c r="F1">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="G1">
-        <v>0.7974</v>
-      </c>
-      <c r="H1">
-        <v>0.81455</v>
-      </c>
-      <c r="I1">
-        <v>0.80235000000000001</v>
-      </c>
-      <c r="J1">
-        <v>0.81455</v>
-      </c>
-      <c r="K1">
-        <v>0.80259999999999998</v>
-      </c>
-      <c r="L1">
-        <v>0.80915000000000004</v>
-      </c>
-      <c r="M1">
-        <v>0.82855000000000001</v>
-      </c>
-      <c r="N1">
-        <v>0.79559999999999997</v>
-      </c>
-      <c r="O1">
-        <v>0.83309999999999995</v>
-      </c>
-      <c r="P1">
-        <v>0.80564999999999998</v>
-      </c>
-      <c r="Q1">
-        <v>0.81164999999999998</v>
-      </c>
-      <c r="R1">
-        <v>0.81205000000000005</v>
-      </c>
-      <c r="S1">
-        <v>0.82855000000000001</v>
-      </c>
-      <c r="T1">
-        <v>0.81525000000000003</v>
-      </c>
       <c r="U1">
-        <v>0.79410000000000003</v>
+        <v>0.81659999999999999</v>
       </c>
       <c r="V1">
-        <v>0.82174999999999998</v>
+        <v>0.8095</v>
       </c>
       <c r="W1">
-        <v>0.79744999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X1">
-        <v>0.79054999999999997</v>
+        <v>0.78444999999999998</v>
       </c>
       <c r="Y1">
-        <v>0.80635000000000001</v>
+        <v>0.77664999999999995</v>
       </c>
       <c r="Z1">
-        <v>0.82074999999999998</v>
+        <v>0.8216</v>
       </c>
       <c r="AA1">
-        <v>0.80089999999999995</v>
+        <v>0.79479999999999995</v>
       </c>
       <c r="AB1">
-        <v>0.79874999999999996</v>
+        <v>0.80869999999999997</v>
       </c>
       <c r="AC1">
-        <v>0.81379999999999997</v>
+        <v>0.8256</v>
       </c>
       <c r="AD1">
-        <v>0.76415</v>
+        <v>0.78905000000000003</v>
       </c>
       <c r="AE1">
-        <v>0.78125</v>
+        <v>0.80779999999999996</v>
       </c>
       <c r="AF1">
-        <v>0.82225000000000004</v>
+        <v>0.8145</v>
       </c>
       <c r="AG1">
-        <v>0.81230000000000002</v>
+        <v>0.82245000000000001</v>
       </c>
       <c r="AH1">
-        <v>0.83089999999999997</v>
+        <v>0.80825000000000002</v>
       </c>
       <c r="AI1">
-        <v>0.83230000000000004</v>
+        <v>0.80820000000000003</v>
       </c>
       <c r="AJ1">
-        <v>0.80349999999999999</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="AK1">
-        <v>0.80020000000000002</v>
+        <v>0.80474999999999997</v>
       </c>
       <c r="AL1">
-        <v>0.80054999999999998</v>
+        <v>0.80940000000000001</v>
       </c>
       <c r="AM1">
-        <v>0.81720000000000004</v>
+        <v>0.83169999999999999</v>
       </c>
       <c r="AN1">
-        <v>0.79405000000000003</v>
+        <v>0.79915000000000003</v>
       </c>
       <c r="AO1">
-        <v>0.82850000000000001</v>
+        <v>0.81684999999999997</v>
       </c>
       <c r="AP1">
-        <v>0.79620000000000002</v>
+        <v>0.80184999999999995</v>
       </c>
       <c r="AQ1">
-        <v>0.82255</v>
+        <v>0.81315000000000004</v>
       </c>
       <c r="AR1">
-        <v>0.79795000000000005</v>
+        <v>0.80794999999999995</v>
       </c>
       <c r="AS1">
-        <v>0.82530000000000003</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="AT1">
-        <v>0.80320000000000003</v>
+        <v>0.79164999999999996</v>
       </c>
       <c r="AU1">
-        <v>0.81200000000000006</v>
+        <v>0.80715000000000003</v>
       </c>
       <c r="AV1">
-        <v>0.81459999999999999</v>
+        <v>0.84445000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.82974999999999999</v>
+        <v>0.8044</v>
       </c>
       <c r="AX1">
-        <v>0.80064999999999997</v>
+        <v>0.80669999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.81</v>
+        <v>0.79679999999999995</v>
       </c>
       <c r="B2">
-        <v>0.77849999999999997</v>
+        <v>0.78174999999999994</v>
       </c>
       <c r="C2">
-        <v>0.78839999999999999</v>
+        <v>0.80349999999999999</v>
       </c>
       <c r="D2">
-        <v>0.78979999999999995</v>
+        <v>0.80584999999999996</v>
       </c>
       <c r="E2">
-        <v>0.79759999999999998</v>
+        <v>0.7833</v>
       </c>
       <c r="F2">
-        <v>0.77270000000000005</v>
+        <v>0.78325</v>
       </c>
       <c r="G2">
-        <v>0.77890000000000004</v>
+        <v>0.79720000000000002</v>
       </c>
       <c r="H2">
-        <v>0.79310000000000003</v>
+        <v>0.79185000000000005</v>
       </c>
       <c r="I2">
-        <v>0.80325000000000002</v>
+        <v>0.80149999999999999</v>
       </c>
       <c r="J2">
-        <v>0.81359999999999999</v>
+        <v>0.80315000000000003</v>
       </c>
       <c r="K2">
+        <v>0.82115000000000005</v>
+      </c>
+      <c r="L2">
+        <v>0.78505000000000003</v>
+      </c>
+      <c r="M2">
+        <v>0.77854999999999996</v>
+      </c>
+      <c r="N2">
+        <v>0.81025000000000003</v>
+      </c>
+      <c r="O2">
+        <v>0.81274999999999997</v>
+      </c>
+      <c r="P2">
+        <v>0.82420000000000004</v>
+      </c>
+      <c r="Q2">
+        <v>0.78285000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.81115000000000004</v>
+      </c>
+      <c r="S2">
+        <v>0.81045</v>
+      </c>
+      <c r="T2">
+        <v>0.79395000000000004</v>
+      </c>
+      <c r="U2">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="V2">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="W2">
+        <v>0.78874999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="Z2">
         <v>0.8135</v>
       </c>
-      <c r="L2">
-        <v>0.81135000000000002</v>
-      </c>
-      <c r="M2">
-        <v>0.80705000000000005</v>
-      </c>
-      <c r="N2">
-        <v>0.77595000000000003</v>
-      </c>
-      <c r="O2">
-        <v>0.82955000000000001</v>
-      </c>
-      <c r="P2">
-        <v>0.80349999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>0.8105</v>
-      </c>
-      <c r="R2">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="S2">
-        <v>0.82325000000000004</v>
-      </c>
-      <c r="T2">
-        <v>0.79579999999999995</v>
-      </c>
-      <c r="U2">
-        <v>0.80469999999999997</v>
-      </c>
-      <c r="V2">
-        <v>0.81710000000000005</v>
-      </c>
-      <c r="W2">
-        <v>0.79079999999999995</v>
-      </c>
-      <c r="X2">
-        <v>0.79215000000000002</v>
-      </c>
-      <c r="Y2">
-        <v>0.79179999999999995</v>
-      </c>
-      <c r="Z2">
-        <v>0.82135000000000002</v>
-      </c>
       <c r="AA2">
-        <v>0.7944</v>
+        <v>0.79544999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.77380000000000004</v>
+        <v>0.80210000000000004</v>
       </c>
       <c r="AC2">
-        <v>0.79735</v>
+        <v>0.81305000000000005</v>
       </c>
       <c r="AD2">
-        <v>0.76439999999999997</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="AE2">
-        <v>0.77854999999999996</v>
+        <v>0.79330000000000001</v>
       </c>
       <c r="AF2">
-        <v>0.81010000000000004</v>
+        <v>0.80474999999999997</v>
       </c>
       <c r="AG2">
-        <v>0.79484999999999995</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="AH2">
-        <v>0.82804999999999995</v>
+        <v>0.78854999999999997</v>
       </c>
       <c r="AI2">
-        <v>0.81894999999999996</v>
+        <v>0.80964999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.79315000000000002</v>
+        <v>0.78195000000000003</v>
       </c>
       <c r="AK2">
-        <v>0.78690000000000004</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="AL2">
-        <v>0.79285000000000005</v>
+        <v>0.80320000000000003</v>
       </c>
       <c r="AM2">
-        <v>0.81605000000000005</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="AN2">
-        <v>0.7984</v>
+        <v>0.79330000000000001</v>
       </c>
       <c r="AO2">
-        <v>0.82089999999999996</v>
+        <v>0.81005000000000005</v>
       </c>
       <c r="AP2">
-        <v>0.80635000000000001</v>
+        <v>0.78734999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.8296</v>
+        <v>0.80945</v>
       </c>
       <c r="AR2">
-        <v>0.80869999999999997</v>
+        <v>0.80954999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.82269999999999999</v>
+        <v>0.8216</v>
       </c>
       <c r="AT2">
-        <v>0.81045</v>
+        <v>0.78854999999999997</v>
       </c>
       <c r="AU2">
-        <v>0.80345</v>
+        <v>0.79844999999999999</v>
       </c>
       <c r="AV2">
-        <v>0.81140000000000001</v>
+        <v>0.83855000000000002</v>
       </c>
       <c r="AW2">
-        <v>0.81289999999999996</v>
+        <v>0.78659999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.78264999999999996</v>
+        <v>0.7964</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.80184999999999995</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="B3">
-        <v>0.77424999999999999</v>
+        <v>0.75765000000000005</v>
       </c>
       <c r="C3">
-        <v>0.79215000000000002</v>
+        <v>0.78364999999999996</v>
       </c>
       <c r="D3">
-        <v>0.78195000000000003</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="E3">
-        <v>0.79120000000000001</v>
+        <v>0.76270000000000004</v>
       </c>
       <c r="F3">
-        <v>0.73499999999999999</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="G3">
-        <v>0.76985000000000003</v>
+        <v>0.78634999999999999</v>
       </c>
       <c r="H3">
-        <v>0.76980000000000004</v>
+        <v>0.76905000000000001</v>
       </c>
       <c r="I3">
-        <v>0.78649999999999998</v>
+        <v>0.78990000000000005</v>
       </c>
       <c r="J3">
-        <v>0.79295000000000004</v>
+        <v>0.7893</v>
       </c>
       <c r="K3">
-        <v>0.81410000000000005</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="L3">
-        <v>0.80564999999999998</v>
+        <v>0.78069999999999995</v>
       </c>
       <c r="M3">
-        <v>0.79759999999999998</v>
+        <v>0.75844999999999996</v>
       </c>
       <c r="N3">
-        <v>0.77024999999999999</v>
+        <v>0.79344999999999999</v>
       </c>
       <c r="O3">
-        <v>0.81864999999999999</v>
+        <v>0.81120000000000003</v>
       </c>
       <c r="P3">
-        <v>0.77029999999999998</v>
+        <v>0.81405000000000005</v>
       </c>
       <c r="Q3">
-        <v>0.79095000000000004</v>
+        <v>0.78895000000000004</v>
       </c>
       <c r="R3">
-        <v>0.79059999999999997</v>
+        <v>0.80549999999999999</v>
       </c>
       <c r="S3">
-        <v>0.81269999999999998</v>
+        <v>0.81040000000000001</v>
       </c>
       <c r="T3">
-        <v>0.76985000000000003</v>
+        <v>0.78825000000000001</v>
       </c>
       <c r="U3">
-        <v>0.80164999999999997</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="V3">
-        <v>0.80825000000000002</v>
+        <v>0.80254999999999999</v>
       </c>
       <c r="W3">
-        <v>0.78800000000000003</v>
+        <v>0.77890000000000004</v>
       </c>
       <c r="X3">
-        <v>0.78139999999999998</v>
+        <v>0.78715000000000002</v>
       </c>
       <c r="Y3">
-        <v>0.77034999999999998</v>
+        <v>0.76114999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.80530000000000002</v>
+        <v>0.80044999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.77510000000000001</v>
+        <v>0.78554999999999997</v>
       </c>
       <c r="AB3">
-        <v>0.75365000000000004</v>
+        <v>0.79105000000000003</v>
       </c>
       <c r="AC3">
-        <v>0.78544999999999998</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="AD3">
-        <v>0.74570000000000003</v>
+        <v>0.77939999999999998</v>
       </c>
       <c r="AE3">
         <v>0.77449999999999997</v>
       </c>
       <c r="AF3">
-        <v>0.79264999999999997</v>
+        <v>0.80515000000000003</v>
       </c>
       <c r="AG3">
-        <v>0.76639999999999997</v>
+        <v>0.81225000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.80569999999999997</v>
+        <v>0.78625</v>
       </c>
       <c r="AI3">
-        <v>0.80525000000000002</v>
+        <v>0.80230000000000001</v>
       </c>
       <c r="AJ3">
-        <v>0.78585000000000005</v>
+        <v>0.77544999999999997</v>
       </c>
       <c r="AK3">
-        <v>0.77790000000000004</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="AL3">
-        <v>0.78144999999999998</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="AM3">
-        <v>0.80200000000000005</v>
+        <v>0.79449999999999998</v>
       </c>
       <c r="AN3">
-        <v>0.77339999999999998</v>
+        <v>0.80940000000000001</v>
       </c>
       <c r="AO3">
-        <v>0.79659999999999997</v>
+        <v>0.80005000000000004</v>
       </c>
       <c r="AP3">
-        <v>0.78944999999999999</v>
+        <v>0.78334999999999999</v>
       </c>
       <c r="AQ3">
-        <v>0.80200000000000005</v>
+        <v>0.80079999999999996</v>
       </c>
       <c r="AR3">
-        <v>0.78810000000000002</v>
+        <v>0.78985000000000005</v>
       </c>
       <c r="AS3">
-        <v>0.80794999999999995</v>
+        <v>0.78525</v>
       </c>
       <c r="AT3">
-        <v>0.79659999999999997</v>
+        <v>0.77105000000000001</v>
       </c>
       <c r="AU3">
-        <v>0.78749999999999998</v>
+        <v>0.78490000000000004</v>
       </c>
       <c r="AV3">
-        <v>0.78005000000000002</v>
+        <v>0.82674999999999998</v>
       </c>
       <c r="AW3">
-        <v>0.79505000000000003</v>
+        <v>0.76005</v>
       </c>
       <c r="AX3">
-        <v>0.77980000000000005</v>
+        <v>0.78649999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.7853</v>
+        <v>0.73939999999999995</v>
       </c>
       <c r="B4">
-        <v>0.76090000000000002</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="C4">
-        <v>0.77559999999999996</v>
+        <v>0.75275000000000003</v>
       </c>
       <c r="D4">
-        <v>0.76244999999999996</v>
+        <v>0.7873</v>
       </c>
       <c r="E4">
-        <v>0.76659999999999995</v>
+        <v>0.74219999999999997</v>
       </c>
       <c r="F4">
-        <v>0.74839999999999995</v>
+        <v>0.76385000000000003</v>
       </c>
       <c r="G4">
-        <v>0.76185000000000003</v>
+        <v>0.76690000000000003</v>
       </c>
       <c r="H4">
-        <v>0.74555000000000005</v>
+        <v>0.75970000000000004</v>
       </c>
       <c r="I4">
-        <v>0.7954</v>
+        <v>0.75895000000000001</v>
       </c>
       <c r="J4">
-        <v>0.77649999999999997</v>
+        <v>0.77644999999999997</v>
       </c>
       <c r="K4">
-        <v>0.77024999999999999</v>
+        <v>0.78854999999999997</v>
       </c>
       <c r="L4">
-        <v>0.77990000000000004</v>
+        <v>0.76605000000000001</v>
       </c>
       <c r="M4">
-        <v>0.76815</v>
+        <v>0.74824999999999997</v>
       </c>
       <c r="N4">
-        <v>0.752</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="O4">
-        <v>0.79115000000000002</v>
+        <v>0.78825000000000001</v>
       </c>
       <c r="P4">
-        <v>0.74995000000000001</v>
+        <v>0.79915000000000003</v>
       </c>
       <c r="Q4">
-        <v>0.79549999999999998</v>
+        <v>0.75049999999999994</v>
       </c>
       <c r="R4">
-        <v>0.75585000000000002</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="S4">
-        <v>0.7873</v>
+        <v>0.78595000000000004</v>
       </c>
       <c r="T4">
-        <v>0.76490000000000002</v>
+        <v>0.74524999999999997</v>
       </c>
       <c r="U4">
-        <v>0.79420000000000002</v>
+        <v>0.8115</v>
       </c>
       <c r="V4">
-        <v>0.75860000000000005</v>
+        <v>0.78764999999999996</v>
       </c>
       <c r="W4">
-        <v>0.75555000000000005</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="X4">
-        <v>0.76105</v>
+        <v>0.746</v>
       </c>
       <c r="Y4">
-        <v>0.74919999999999998</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="Z4">
-        <v>0.77529999999999999</v>
+        <v>0.77364999999999995</v>
       </c>
       <c r="AA4">
-        <v>0.73924999999999996</v>
+        <v>0.74785000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.74780000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="AC4">
-        <v>0.78300000000000003</v>
+        <v>0.79069999999999996</v>
       </c>
       <c r="AD4">
-        <v>0.74039999999999995</v>
+        <v>0.74355000000000004</v>
       </c>
       <c r="AE4">
-        <v>0.75819999999999999</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.77154999999999996</v>
+        <v>0.77524999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.74965000000000004</v>
+        <v>0.76785000000000003</v>
       </c>
       <c r="AH4">
-        <v>0.80374999999999996</v>
+        <v>0.76315</v>
       </c>
       <c r="AI4">
-        <v>0.7742</v>
+        <v>0.79559999999999997</v>
       </c>
       <c r="AJ4">
-        <v>0.77785000000000004</v>
+        <v>0.76065000000000005</v>
       </c>
       <c r="AK4">
-        <v>0.74924999999999997</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="AL4">
-        <v>0.76490000000000002</v>
+        <v>0.77985000000000004</v>
       </c>
       <c r="AM4">
-        <v>0.78854999999999997</v>
+        <v>0.79430000000000001</v>
       </c>
       <c r="AN4">
-        <v>0.76244999999999996</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="AO4">
-        <v>0.79544999999999999</v>
+        <v>0.76024999999999998</v>
       </c>
       <c r="AP4">
-        <v>0.77775000000000005</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="AQ4">
-        <v>0.78549999999999998</v>
+        <v>0.78385000000000005</v>
       </c>
       <c r="AR4">
-        <v>0.76544999999999996</v>
+        <v>0.75654999999999994</v>
       </c>
       <c r="AS4">
-        <v>0.75729999999999997</v>
+        <v>0.77324999999999999</v>
       </c>
       <c r="AT4">
-        <v>0.76754999999999995</v>
+        <v>0.74455000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.79244999999999999</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="AV4">
-        <v>0.77959999999999996</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="AW4">
-        <v>0.76934999999999998</v>
+        <v>0.74409999999999998</v>
       </c>
       <c r="AX4">
-        <v>0.76600000000000001</v>
+        <v>0.76054999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.76315</v>
+        <v>0.71455000000000002</v>
       </c>
       <c r="B5">
-        <v>0.73365000000000002</v>
+        <v>0.70509999999999995</v>
       </c>
       <c r="C5">
-        <v>0.74944999999999995</v>
+        <v>0.73834999999999995</v>
       </c>
       <c r="D5">
-        <v>0.74399999999999999</v>
+        <v>0.74370000000000003</v>
       </c>
       <c r="E5">
-        <v>0.74480000000000002</v>
+        <v>0.7258</v>
       </c>
       <c r="F5">
-        <v>0.72209999999999996</v>
+        <v>0.7349</v>
       </c>
       <c r="G5">
-        <v>0.70945000000000003</v>
+        <v>0.746</v>
       </c>
       <c r="H5">
-        <v>0.73145000000000004</v>
+        <v>0.73780000000000001</v>
       </c>
       <c r="I5">
-        <v>0.77190000000000003</v>
+        <v>0.73904999999999998</v>
       </c>
       <c r="J5">
-        <v>0.75309999999999999</v>
+        <v>0.74314999999999998</v>
       </c>
       <c r="K5">
-        <v>0.74904999999999999</v>
+        <v>0.74455000000000005</v>
       </c>
       <c r="L5">
-        <v>0.75549999999999995</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="M5">
-        <v>0.74775000000000003</v>
+        <v>0.73550000000000004</v>
       </c>
       <c r="N5">
-        <v>0.71789999999999998</v>
+        <v>0.74404999999999999</v>
       </c>
       <c r="O5">
-        <v>0.77490000000000003</v>
+        <v>0.75675000000000003</v>
       </c>
       <c r="P5">
-        <v>0.73895</v>
+        <v>0.76475000000000004</v>
       </c>
       <c r="Q5">
-        <v>0.75680000000000003</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="R5">
-        <v>0.74924999999999997</v>
+        <v>0.75385000000000002</v>
       </c>
       <c r="S5">
         <v>0.75560000000000005</v>
       </c>
       <c r="T5">
-        <v>0.73375000000000001</v>
+        <v>0.72789999999999999</v>
       </c>
       <c r="U5">
-        <v>0.76644999999999996</v>
+        <v>0.77</v>
       </c>
       <c r="V5">
-        <v>0.71504999999999996</v>
+        <v>0.75109999999999999</v>
       </c>
       <c r="W5">
-        <v>0.72035000000000005</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="X5">
-        <v>0.73534999999999995</v>
+        <v>0.73634999999999995</v>
       </c>
       <c r="Y5">
-        <v>0.73629999999999995</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="Z5">
-        <v>0.74375000000000002</v>
+        <v>0.76524999999999999</v>
       </c>
       <c r="AA5">
-        <v>0.71335000000000004</v>
+        <v>0.73035000000000005</v>
       </c>
       <c r="AB5">
-        <v>0.72740000000000005</v>
+        <v>0.73545000000000005</v>
       </c>
       <c r="AC5">
-        <v>0.73199999999999998</v>
+        <v>0.7661</v>
       </c>
       <c r="AD5">
-        <v>0.71679999999999999</v>
+        <v>0.73075000000000001</v>
       </c>
       <c r="AE5">
-        <v>0.73365000000000002</v>
+        <v>0.75285000000000002</v>
       </c>
       <c r="AF5">
-        <v>0.7359</v>
+        <v>0.74360000000000004</v>
       </c>
       <c r="AG5">
-        <v>0.7319</v>
+        <v>0.73185</v>
       </c>
       <c r="AH5">
-        <v>0.76334999999999997</v>
+        <v>0.7339</v>
       </c>
       <c r="AI5">
-        <v>0.75690000000000002</v>
+        <v>0.75880000000000003</v>
       </c>
       <c r="AJ5">
-        <v>0.7359</v>
+        <v>0.72855000000000003</v>
       </c>
       <c r="AK5">
-        <v>0.73250000000000004</v>
+        <v>0.72785</v>
       </c>
       <c r="AL5">
-        <v>0.73085</v>
+        <v>0.76619999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.745</v>
+        <v>0.77175000000000005</v>
       </c>
       <c r="AN5">
-        <v>0.73995</v>
+        <v>0.75695000000000001</v>
       </c>
       <c r="AO5">
-        <v>0.77285000000000004</v>
+        <v>0.74275000000000002</v>
       </c>
       <c r="AP5">
-        <v>0.74975000000000003</v>
+        <v>0.74824999999999997</v>
       </c>
       <c r="AQ5">
-        <v>0.75439999999999996</v>
+        <v>0.74895</v>
       </c>
       <c r="AR5">
-        <v>0.74314999999999998</v>
+        <v>0.73404999999999998</v>
       </c>
       <c r="AS5">
-        <v>0.74219999999999997</v>
+        <v>0.73909999999999998</v>
       </c>
       <c r="AT5">
-        <v>0.74880000000000002</v>
+        <v>0.72430000000000005</v>
       </c>
       <c r="AU5">
-        <v>0.75754999999999995</v>
+        <v>0.73780000000000001</v>
       </c>
       <c r="AV5">
-        <v>0.74404999999999999</v>
+        <v>0.76719999999999999</v>
       </c>
       <c r="AW5">
-        <v>0.72655000000000003</v>
+        <v>0.74865000000000004</v>
       </c>
       <c r="AX5">
-        <v>0.75329999999999997</v>
+        <v>0.7409</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.7258</v>
+        <v>0.70565</v>
       </c>
       <c r="B6">
-        <v>0.73035000000000005</v>
+        <v>0.68559999999999999</v>
       </c>
       <c r="C6">
-        <v>0.73504999999999998</v>
+        <v>0.70184999999999997</v>
       </c>
       <c r="D6">
-        <v>0.70784999999999998</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="E6">
-        <v>0.72560000000000002</v>
+        <v>0.70089999999999997</v>
       </c>
       <c r="F6">
-        <v>0.71704999999999997</v>
+        <v>0.71855000000000002</v>
       </c>
       <c r="G6">
-        <v>0.67935000000000001</v>
+        <v>0.71535000000000004</v>
       </c>
       <c r="H6">
-        <v>0.69850000000000001</v>
+        <v>0.70925000000000005</v>
       </c>
       <c r="I6">
-        <v>0.74004999999999999</v>
+        <v>0.71660000000000001</v>
       </c>
       <c r="J6">
-        <v>0.74385000000000001</v>
+        <v>0.69774999999999998</v>
       </c>
       <c r="K6">
-        <v>0.73829999999999996</v>
+        <v>0.72145000000000004</v>
       </c>
       <c r="L6">
-        <v>0.74934999999999996</v>
+        <v>0.69915000000000005</v>
       </c>
       <c r="M6">
-        <v>0.72699999999999998</v>
+        <v>0.71204999999999996</v>
       </c>
       <c r="N6">
-        <v>0.70245000000000002</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="O6">
-        <v>0.74624999999999997</v>
+        <v>0.73655000000000004</v>
       </c>
       <c r="P6">
-        <v>0.69410000000000005</v>
+        <v>0.71809999999999996</v>
       </c>
       <c r="Q6">
-        <v>0.73860000000000003</v>
+        <v>0.6996</v>
       </c>
       <c r="R6">
-        <v>0.70745000000000002</v>
+        <v>0.7268</v>
       </c>
       <c r="S6">
-        <v>0.73209999999999997</v>
+        <v>0.72809999999999997</v>
       </c>
       <c r="T6">
-        <v>0.73185</v>
+        <v>0.69910000000000005</v>
       </c>
       <c r="U6">
-        <v>0.73199999999999998</v>
+        <v>0.73529999999999995</v>
       </c>
       <c r="V6">
+        <v>0.74575000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.70594999999999997</v>
+      </c>
+      <c r="X6">
+        <v>0.67979999999999996</v>
+      </c>
+      <c r="Y6">
+        <v>0.68174999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>0.74285000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>0.70184999999999997</v>
+      </c>
+      <c r="AC6">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="AD6">
+        <v>0.69684999999999997</v>
+      </c>
+      <c r="AE6">
+        <v>0.73585</v>
+      </c>
+      <c r="AF6">
         <v>0.69464999999999999</v>
       </c>
-      <c r="W6">
-        <v>0.69745000000000001</v>
-      </c>
-      <c r="X6">
-        <v>0.70155000000000001</v>
-      </c>
-      <c r="Y6">
-        <v>0.69450000000000001</v>
-      </c>
-      <c r="Z6">
-        <v>0.71679999999999999</v>
-      </c>
-      <c r="AA6">
-        <v>0.69669999999999999</v>
-      </c>
-      <c r="AB6">
-        <v>0.72770000000000001</v>
-      </c>
-      <c r="AC6">
-        <v>0.71045000000000003</v>
-      </c>
-      <c r="AD6">
-        <v>0.69135000000000002</v>
-      </c>
-      <c r="AE6">
-        <v>0.70730000000000004</v>
-      </c>
-      <c r="AF6">
-        <v>0.69840000000000002</v>
-      </c>
       <c r="AG6">
-        <v>0.72760000000000002</v>
+        <v>0.71825000000000006</v>
       </c>
       <c r="AH6">
-        <v>0.74034999999999995</v>
+        <v>0.72184999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.75705</v>
+        <v>0.71265000000000001</v>
       </c>
       <c r="AJ6">
-        <v>0.71265000000000001</v>
+        <v>0.69264999999999999</v>
       </c>
       <c r="AK6">
-        <v>0.70635000000000003</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="AL6">
-        <v>0.71689999999999998</v>
+        <v>0.72004999999999997</v>
       </c>
       <c r="AM6">
-        <v>0.72655000000000003</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AN6">
-        <v>0.69450000000000001</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="AO6">
-        <v>0.73824999999999996</v>
+        <v>0.70689999999999997</v>
       </c>
       <c r="AP6">
-        <v>0.71850000000000003</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="AQ6">
-        <v>0.72550000000000003</v>
+        <v>0.72035000000000005</v>
       </c>
       <c r="AR6">
-        <v>0.70120000000000005</v>
+        <v>0.70494999999999997</v>
       </c>
       <c r="AS6">
-        <v>0.70684999999999998</v>
+        <v>0.71125000000000005</v>
       </c>
       <c r="AT6">
-        <v>0.73360000000000003</v>
+        <v>0.69845000000000002</v>
       </c>
       <c r="AU6">
-        <v>0.71994999999999998</v>
+        <v>0.71775</v>
       </c>
       <c r="AV6">
-        <v>0.73665000000000003</v>
+        <v>0.73404999999999998</v>
       </c>
       <c r="AW6">
-        <v>0.71194999999999997</v>
+        <v>0.69925000000000004</v>
       </c>
       <c r="AX6">
-        <v>0.71660000000000001</v>
+        <v>0.72209999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.70809999999999995</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="B7">
-        <v>0.70004999999999995</v>
+        <v>0.68955</v>
       </c>
       <c r="C7">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.70765</v>
+      </c>
+      <c r="E7">
+        <v>0.65054999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0.71384999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.70874999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.68445</v>
+      </c>
+      <c r="K7">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.68074999999999997</v>
+      </c>
+      <c r="M7">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.71604999999999996</v>
+      </c>
+      <c r="P7">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="R7">
+        <v>0.69604999999999995</v>
+      </c>
+      <c r="S7">
+        <v>0.70755000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.68074999999999997</v>
+      </c>
+      <c r="U7">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="V7">
+        <v>0.72050000000000003</v>
+      </c>
+      <c r="W7">
+        <v>0.70184999999999997</v>
+      </c>
+      <c r="X7">
+        <v>0.66610000000000003</v>
+      </c>
+      <c r="Y7">
+        <v>0.66949999999999998</v>
+      </c>
+      <c r="Z7">
+        <v>0.71684999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.70825000000000005</v>
+      </c>
+      <c r="AB7">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="AC7">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="AD7">
+        <v>0.65585000000000004</v>
+      </c>
+      <c r="AE7">
+        <v>0.72394999999999998</v>
+      </c>
+      <c r="AF7">
+        <v>0.67435</v>
+      </c>
+      <c r="AG7">
+        <v>0.70615000000000006</v>
+      </c>
+      <c r="AH7">
+        <v>0.70294999999999996</v>
+      </c>
+      <c r="AI7">
+        <v>0.69604999999999995</v>
+      </c>
+      <c r="AJ7">
+        <v>0.65905000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AL7">
+        <v>0.68779999999999997</v>
+      </c>
+      <c r="AM7">
+        <v>0.72850000000000004</v>
+      </c>
+      <c r="AN7">
+        <v>0.67915000000000003</v>
+      </c>
+      <c r="AO7">
+        <v>0.70655000000000001</v>
+      </c>
+      <c r="AP7">
+        <v>0.68694999999999995</v>
+      </c>
+      <c r="AQ7">
+        <v>0.70484999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.66715000000000002</v>
+      </c>
+      <c r="AS7">
+        <v>0.70204999999999995</v>
+      </c>
+      <c r="AT7">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="AU7">
+        <v>0.67764999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.71745000000000003</v>
+      </c>
+      <c r="AW7">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="AX7">
         <v>0.69650000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.69850000000000001</v>
-      </c>
-      <c r="E7">
-        <v>0.68930000000000002</v>
-      </c>
-      <c r="F7">
-        <v>0.70194999999999996</v>
-      </c>
-      <c r="G7">
-        <v>0.67195000000000005</v>
-      </c>
-      <c r="H7">
-        <v>0.6895</v>
-      </c>
-      <c r="I7">
-        <v>0.68240000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0.70850000000000002</v>
-      </c>
-      <c r="K7">
-        <v>0.71394999999999997</v>
-      </c>
-      <c r="L7">
-        <v>0.71494999999999997</v>
-      </c>
-      <c r="M7">
-        <v>0.69930000000000003</v>
-      </c>
-      <c r="N7">
-        <v>0.70455000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.71494999999999997</v>
-      </c>
-      <c r="P7">
-        <v>0.68815000000000004</v>
-      </c>
-      <c r="Q7">
-        <v>0.68440000000000001</v>
-      </c>
-      <c r="R7">
-        <v>0.69369999999999998</v>
-      </c>
-      <c r="S7">
-        <v>0.69515000000000005</v>
-      </c>
-      <c r="T7">
-        <v>0.70594999999999997</v>
-      </c>
-      <c r="U7">
-        <v>0.73370000000000002</v>
-      </c>
-      <c r="V7">
-        <v>0.68140000000000001</v>
-      </c>
-      <c r="W7">
-        <v>0.66800000000000004</v>
-      </c>
-      <c r="X7">
-        <v>0.69184999999999997</v>
-      </c>
-      <c r="Y7">
-        <v>0.6835</v>
-      </c>
-      <c r="Z7">
-        <v>0.69415000000000004</v>
-      </c>
-      <c r="AA7">
-        <v>0.66620000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>0.69369999999999998</v>
-      </c>
-      <c r="AC7">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="AD7">
-        <v>0.66659999999999997</v>
-      </c>
-      <c r="AE7">
-        <v>0.6865</v>
-      </c>
-      <c r="AF7">
-        <v>0.67144999999999999</v>
-      </c>
-      <c r="AG7">
-        <v>0.69255</v>
-      </c>
-      <c r="AH7">
-        <v>0.71835000000000004</v>
-      </c>
-      <c r="AI7">
-        <v>0.73980000000000001</v>
-      </c>
-      <c r="AJ7">
-        <v>0.69255</v>
-      </c>
-      <c r="AK7">
-        <v>0.68610000000000004</v>
-      </c>
-      <c r="AL7">
-        <v>0.71565000000000001</v>
-      </c>
-      <c r="AM7">
-        <v>0.69555</v>
-      </c>
-      <c r="AN7">
-        <v>0.67789999999999995</v>
-      </c>
-      <c r="AO7">
-        <v>0.68940000000000001</v>
-      </c>
-      <c r="AP7">
-        <v>0.69845000000000002</v>
-      </c>
-      <c r="AQ7">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="AR7">
-        <v>0.67964999999999998</v>
-      </c>
-      <c r="AS7">
-        <v>0.67510000000000003</v>
-      </c>
-      <c r="AT7">
-        <v>0.71489999999999998</v>
-      </c>
-      <c r="AU7">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="AV7">
-        <v>0.72409999999999997</v>
-      </c>
-      <c r="AW7">
-        <v>0.68959999999999999</v>
-      </c>
-      <c r="AX7">
-        <v>0.69679999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.67179999999999995</v>
+        <v>0.65969999999999995</v>
       </c>
       <c r="B8">
-        <v>0.6704</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="C8">
-        <v>0.69020000000000004</v>
+        <v>0.66995000000000005</v>
       </c>
       <c r="D8">
-        <v>0.68940000000000001</v>
+        <v>0.67635000000000001</v>
       </c>
       <c r="E8">
-        <v>0.65659999999999996</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="F8">
-        <v>0.67290000000000005</v>
+        <v>0.69520000000000004</v>
       </c>
       <c r="G8">
-        <v>0.64980000000000004</v>
+        <v>0.67105000000000004</v>
       </c>
       <c r="H8">
-        <v>0.67059999999999997</v>
+        <v>0.68310000000000004</v>
       </c>
       <c r="I8">
-        <v>0.67874999999999996</v>
+        <v>0.66615000000000002</v>
       </c>
       <c r="J8">
-        <v>0.68215000000000003</v>
+        <v>0.66174999999999995</v>
       </c>
       <c r="K8">
-        <v>0.71384999999999998</v>
+        <v>0.66979999999999995</v>
       </c>
       <c r="L8">
-        <v>0.71309999999999996</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="M8">
-        <v>0.67525000000000002</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="N8">
-        <v>0.69804999999999995</v>
+        <v>0.68035000000000001</v>
       </c>
       <c r="O8">
-        <v>0.69264999999999999</v>
+        <v>0.6895</v>
       </c>
       <c r="P8">
-        <v>0.67369999999999997</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.68489999999999995</v>
+        <v>0.66664999999999996</v>
       </c>
       <c r="R8">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="S8">
+        <v>0.70104999999999995</v>
+      </c>
+      <c r="T8">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.69835000000000003</v>
+      </c>
+      <c r="V8">
+        <v>0.69159999999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.6835</v>
+      </c>
+      <c r="X8">
+        <v>0.64829999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="Z8">
+        <v>0.69479999999999997</v>
+      </c>
+      <c r="AA8">
         <v>0.68105000000000004</v>
       </c>
-      <c r="S8">
-        <v>0.69059999999999999</v>
-      </c>
-      <c r="T8">
-        <v>0.69530000000000003</v>
-      </c>
-      <c r="U8">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="V8">
-        <v>0.69935000000000003</v>
-      </c>
-      <c r="W8">
-        <v>0.65605000000000002</v>
-      </c>
-      <c r="X8">
-        <v>0.66054999999999997</v>
-      </c>
-      <c r="Y8">
-        <v>0.66554999999999997</v>
-      </c>
-      <c r="Z8">
-        <v>0.66485000000000005</v>
-      </c>
-      <c r="AA8">
-        <v>0.65895000000000004</v>
-      </c>
       <c r="AB8">
-        <v>0.68554999999999999</v>
+        <v>0.65515000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.69155</v>
+        <v>0.68740000000000001</v>
       </c>
       <c r="AD8">
-        <v>0.67474999999999996</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="AE8">
-        <v>0.67235</v>
+        <v>0.68925000000000003</v>
       </c>
       <c r="AF8">
-        <v>0.65680000000000005</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="AG8">
-        <v>0.67</v>
+        <v>0.6794</v>
       </c>
       <c r="AH8">
-        <v>0.69305000000000005</v>
+        <v>0.68225000000000002</v>
       </c>
       <c r="AI8">
-        <v>0.73995</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AJ8">
-        <v>0.69474999999999998</v>
+        <v>0.65434999999999999</v>
       </c>
       <c r="AK8">
-        <v>0.67720000000000002</v>
+        <v>0.66590000000000005</v>
       </c>
       <c r="AL8">
-        <v>0.69615000000000005</v>
+        <v>0.65615000000000001</v>
       </c>
       <c r="AM8">
-        <v>0.66979999999999995</v>
+        <v>0.68405000000000005</v>
       </c>
       <c r="AN8">
-        <v>0.66180000000000005</v>
+        <v>0.67215000000000003</v>
       </c>
       <c r="AO8">
-        <v>0.67264999999999997</v>
+        <v>0.68925000000000003</v>
       </c>
       <c r="AP8">
-        <v>0.67395000000000005</v>
+        <v>0.67130000000000001</v>
       </c>
       <c r="AQ8">
-        <v>0.70130000000000003</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="AR8">
-        <v>0.65585000000000004</v>
+        <v>0.64770000000000005</v>
       </c>
       <c r="AS8">
-        <v>0.67444999999999999</v>
+        <v>0.68125000000000002</v>
       </c>
       <c r="AT8">
-        <v>0.70420000000000005</v>
+        <v>0.66615000000000002</v>
       </c>
       <c r="AU8">
-        <v>0.6472</v>
+        <v>0.64570000000000005</v>
       </c>
       <c r="AV8">
-        <v>0.72829999999999995</v>
+        <v>0.69750000000000001</v>
       </c>
       <c r="AW8">
-        <v>0.64480000000000004</v>
+        <v>0.66879999999999995</v>
       </c>
       <c r="AX8">
-        <v>0.67049999999999998</v>
+        <v>0.68945000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.64905000000000002</v>
+        <v>0.63460000000000005</v>
       </c>
       <c r="B9">
-        <v>0.65864999999999996</v>
+        <v>0.65215000000000001</v>
       </c>
       <c r="C9">
-        <v>0.66490000000000005</v>
+        <v>0.65395000000000003</v>
       </c>
       <c r="D9">
-        <v>0.66569999999999996</v>
+        <v>0.65734999999999999</v>
       </c>
       <c r="E9">
-        <v>0.63680000000000003</v>
+        <v>0.61595</v>
       </c>
       <c r="F9">
-        <v>0.66005000000000003</v>
+        <v>0.67464999999999997</v>
       </c>
       <c r="G9">
-        <v>0.63149999999999995</v>
+        <v>0.66620000000000001</v>
       </c>
       <c r="H9">
-        <v>0.63754999999999995</v>
+        <v>0.66474999999999995</v>
       </c>
       <c r="I9">
-        <v>0.65525</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="J9">
-        <v>0.65995000000000004</v>
+        <v>0.65295000000000003</v>
       </c>
       <c r="K9">
-        <v>0.68500000000000005</v>
+        <v>0.64295000000000002</v>
       </c>
       <c r="L9">
-        <v>0.68930000000000002</v>
+        <v>0.64495000000000002</v>
       </c>
       <c r="M9">
-        <v>0.65325</v>
+        <v>0.64815</v>
       </c>
       <c r="N9">
-        <v>0.67820000000000003</v>
+        <v>0.68994999999999995</v>
       </c>
       <c r="O9">
-        <v>0.6653</v>
+        <v>0.69315000000000004</v>
       </c>
       <c r="P9">
-        <v>0.65264999999999995</v>
+        <v>0.68474999999999997</v>
       </c>
       <c r="Q9">
-        <v>0.67125000000000001</v>
+        <v>0.64729999999999999</v>
       </c>
       <c r="R9">
-        <v>0.65354999999999996</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="S9">
-        <v>0.66605000000000003</v>
+        <v>0.66285000000000005</v>
       </c>
       <c r="T9">
-        <v>0.68669999999999998</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="U9">
-        <v>0.7036</v>
+        <v>0.67795000000000005</v>
       </c>
       <c r="V9">
-        <v>0.67115000000000002</v>
+        <v>0.68135000000000001</v>
       </c>
       <c r="W9">
-        <v>0.64215</v>
+        <v>0.67495000000000005</v>
       </c>
       <c r="X9">
-        <v>0.63090000000000002</v>
+        <v>0.62214999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.64034999999999997</v>
+        <v>0.61985000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.68030000000000002</v>
+        <v>0.67159999999999997</v>
       </c>
       <c r="AA9">
-        <v>0.66074999999999995</v>
+        <v>0.66590000000000005</v>
       </c>
       <c r="AB9">
-        <v>0.67830000000000001</v>
+        <v>0.63434999999999997</v>
       </c>
       <c r="AC9">
-        <v>0.68979999999999997</v>
+        <v>0.67835000000000001</v>
       </c>
       <c r="AD9">
-        <v>0.67505000000000004</v>
+        <v>0.62949999999999995</v>
       </c>
       <c r="AE9">
-        <v>0.65264999999999995</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="AF9">
-        <v>0.66134999999999999</v>
+        <v>0.65405000000000002</v>
       </c>
       <c r="AG9">
-        <v>0.67490000000000006</v>
+        <v>0.66915000000000002</v>
       </c>
       <c r="AH9">
-        <v>0.66485000000000005</v>
+        <v>0.66925000000000001</v>
       </c>
       <c r="AI9">
-        <v>0.70699999999999996</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="AJ9">
-        <v>0.67895000000000005</v>
+        <v>0.64139999999999997</v>
       </c>
       <c r="AK9">
-        <v>0.66234999999999999</v>
+        <v>0.64349999999999996</v>
       </c>
       <c r="AL9">
-        <v>0.66995000000000005</v>
+        <v>0.64834999999999998</v>
       </c>
       <c r="AM9">
-        <v>0.65944999999999998</v>
+        <v>0.68774999999999997</v>
       </c>
       <c r="AN9">
-        <v>0.67549999999999999</v>
+        <v>0.65734999999999999</v>
       </c>
       <c r="AO9">
-        <v>0.64095000000000002</v>
+        <v>0.67310000000000003</v>
       </c>
       <c r="AP9">
-        <v>0.67020000000000002</v>
+        <v>0.65874999999999995</v>
       </c>
       <c r="AQ9">
-        <v>0.67235</v>
+        <v>0.69679999999999997</v>
       </c>
       <c r="AR9">
-        <v>0.64629999999999999</v>
+        <v>0.63344999999999996</v>
       </c>
       <c r="AS9">
-        <v>0.65334999999999999</v>
+        <v>0.68159999999999998</v>
       </c>
       <c r="AT9">
-        <v>0.70660000000000001</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="AU9">
-        <v>0.65225</v>
+        <v>0.60834999999999995</v>
       </c>
       <c r="AV9">
-        <v>0.69755</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="AW9">
-        <v>0.65644999999999998</v>
+        <v>0.65115000000000001</v>
       </c>
       <c r="AX9">
-        <v>0.66044999999999998</v>
+        <v>0.66739999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.64534999999999998</v>
+        <v>0.6472</v>
       </c>
       <c r="B10">
-        <v>0.63954999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="C10">
+        <v>0.65</v>
+      </c>
+      <c r="D10">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.68830000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.65164999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.64305000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.623</v>
+      </c>
+      <c r="L10">
+        <v>0.62580000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.63544999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0.68069999999999997</v>
+      </c>
+      <c r="O10">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="P10">
+        <v>0.66264999999999996</v>
+      </c>
+      <c r="Q10">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.66195000000000004</v>
+      </c>
+      <c r="S10">
+        <v>0.64995000000000003</v>
+      </c>
+      <c r="T10">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="U10">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="W10">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="X10">
+        <v>0.60475000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="Z10">
+        <v>0.68325000000000002</v>
+      </c>
+      <c r="AA10">
+        <v>0.65234999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>0.6321</v>
+      </c>
+      <c r="AC10">
+        <v>0.67144999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>0.61055000000000004</v>
+      </c>
+      <c r="AE10">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="AF10">
+        <v>0.64034999999999997</v>
+      </c>
+      <c r="AG10">
+        <v>0.6532</v>
+      </c>
+      <c r="AH10">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AI10">
+        <v>0.66535</v>
+      </c>
+      <c r="AJ10">
+        <v>0.6462</v>
+      </c>
+      <c r="AK10">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="AL10">
         <v>0.62605</v>
       </c>
-      <c r="D10">
-        <v>0.6552</v>
-      </c>
-      <c r="E10">
-        <v>0.64690000000000003</v>
-      </c>
-      <c r="F10">
-        <v>0.64354999999999996</v>
-      </c>
-      <c r="G10">
-        <v>0.60760000000000003</v>
-      </c>
-      <c r="H10">
-        <v>0.62834999999999996</v>
-      </c>
-      <c r="I10">
-        <v>0.65964999999999996</v>
-      </c>
-      <c r="J10">
-        <v>0.64870000000000005</v>
-      </c>
-      <c r="K10">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="L10">
-        <v>0.67864999999999998</v>
-      </c>
-      <c r="M10">
-        <v>0.64329999999999998</v>
-      </c>
-      <c r="N10">
-        <v>0.67495000000000005</v>
-      </c>
-      <c r="O10">
-        <v>0.64339999999999997</v>
-      </c>
-      <c r="P10">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="Q10">
-        <v>0.65275000000000005</v>
-      </c>
-      <c r="R10">
-        <v>0.63119999999999998</v>
-      </c>
-      <c r="S10">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="T10">
-        <v>0.70740000000000003</v>
-      </c>
-      <c r="U10">
-        <v>0.70465</v>
-      </c>
-      <c r="V10">
-        <v>0.64670000000000005</v>
-      </c>
-      <c r="W10">
-        <v>0.61209999999999998</v>
-      </c>
-      <c r="X10">
-        <v>0.62444999999999995</v>
-      </c>
-      <c r="Y10">
-        <v>0.6341</v>
-      </c>
-      <c r="Z10">
-        <v>0.66810000000000003</v>
-      </c>
-      <c r="AA10">
-        <v>0.65034999999999998</v>
-      </c>
-      <c r="AB10">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="AC10">
-        <v>0.6875</v>
-      </c>
-      <c r="AD10">
-        <v>0.64265000000000005</v>
-      </c>
-      <c r="AE10">
-        <v>0.65</v>
-      </c>
-      <c r="AF10">
-        <v>0.65805000000000002</v>
-      </c>
-      <c r="AG10">
-        <v>0.65695000000000003</v>
-      </c>
-      <c r="AH10">
-        <v>0.65974999999999995</v>
-      </c>
-      <c r="AI10">
-        <v>0.70209999999999995</v>
-      </c>
-      <c r="AJ10">
-        <v>0.67679999999999996</v>
-      </c>
-      <c r="AK10">
-        <v>0.66069999999999995</v>
-      </c>
-      <c r="AL10">
-        <v>0.64610000000000001</v>
-      </c>
       <c r="AM10">
-        <v>0.64044999999999996</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AN10">
-        <v>0.64964999999999995</v>
+        <v>0.65725</v>
       </c>
       <c r="AO10">
-        <v>0.62575000000000003</v>
+        <v>0.65885000000000005</v>
       </c>
       <c r="AP10">
-        <v>0.6623</v>
+        <v>0.65454999999999997</v>
       </c>
       <c r="AQ10">
-        <v>0.68354999999999999</v>
+        <v>0.68589999999999995</v>
       </c>
       <c r="AR10">
-        <v>0.61745000000000005</v>
+        <v>0.62555000000000005</v>
       </c>
       <c r="AS10">
-        <v>0.66044999999999998</v>
+        <v>0.66839999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.67654999999999998</v>
+        <v>0.65334999999999999</v>
       </c>
       <c r="AU10">
-        <v>0.62814999999999999</v>
+        <v>0.58845000000000003</v>
       </c>
       <c r="AV10">
-        <v>0.69084999999999996</v>
+        <v>0.67295000000000005</v>
       </c>
       <c r="AW10">
-        <v>0.62470000000000003</v>
+        <v>0.63970000000000005</v>
       </c>
       <c r="AX10">
-        <v>0.66269999999999996</v>
+        <v>0.67664999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.64359999999999995</v>
+        <v>0.62444999999999995</v>
       </c>
       <c r="B11">
-        <v>0.61780000000000002</v>
+        <v>0.62980000000000003</v>
       </c>
       <c r="C11">
-        <v>0.62109999999999999</v>
+        <v>0.63714999999999999</v>
       </c>
       <c r="D11">
-        <v>0.65710000000000002</v>
+        <v>0.63385000000000002</v>
       </c>
       <c r="E11">
-        <v>0.61580000000000001</v>
+        <v>0.59740000000000004</v>
       </c>
       <c r="F11">
-        <v>0.63300000000000001</v>
+        <v>0.68189999999999995</v>
       </c>
       <c r="G11">
-        <v>0.58514999999999995</v>
+        <v>0.62824999999999998</v>
       </c>
       <c r="H11">
-        <v>0.62719999999999998</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="I11">
-        <v>0.64664999999999995</v>
+        <v>0.61014999999999997</v>
       </c>
       <c r="J11">
-        <v>0.61634999999999995</v>
+        <v>0.63465000000000005</v>
       </c>
       <c r="K11">
-        <v>0.68064999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="L11">
-        <v>0.66054999999999997</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="M11">
-        <v>0.63600000000000001</v>
+        <v>0.61614999999999998</v>
       </c>
       <c r="N11">
-        <v>0.66669999999999996</v>
+        <v>0.68135000000000001</v>
       </c>
       <c r="O11">
-        <v>0.64834999999999998</v>
+        <v>0.6714</v>
       </c>
       <c r="P11">
-        <v>0.61504999999999999</v>
+        <v>0.66559999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.65380000000000005</v>
+        <v>0.62409999999999999</v>
       </c>
       <c r="R11">
-        <v>0.62770000000000004</v>
+        <v>0.6593</v>
       </c>
       <c r="S11">
-        <v>0.62980000000000003</v>
+        <v>0.63875000000000004</v>
       </c>
       <c r="T11">
-        <v>0.67044999999999999</v>
+        <v>0.63819999999999999</v>
       </c>
       <c r="U11">
-        <v>0.68425000000000002</v>
+        <v>0.66464999999999996</v>
       </c>
       <c r="V11">
-        <v>0.64349999999999996</v>
+        <v>0.61729999999999996</v>
       </c>
       <c r="W11">
-        <v>0.59655000000000002</v>
+        <v>0.65990000000000004</v>
       </c>
       <c r="X11">
-        <v>0.60699999999999998</v>
+        <v>0.59135000000000004</v>
       </c>
       <c r="Y11">
-        <v>0.61765000000000003</v>
+        <v>0.60665000000000002</v>
       </c>
       <c r="Z11">
-        <v>0.65085000000000004</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="AA11">
-        <v>0.62605</v>
+        <v>0.65180000000000005</v>
       </c>
       <c r="AB11">
-        <v>0.65905000000000002</v>
+        <v>0.61970000000000003</v>
       </c>
       <c r="AC11">
-        <v>0.67105000000000004</v>
+        <v>0.65364999999999995</v>
       </c>
       <c r="AD11">
-        <v>0.64319999999999999</v>
+        <v>0.58989999999999998</v>
       </c>
       <c r="AE11">
-        <v>0.63449999999999995</v>
+        <v>0.65934999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.65069999999999995</v>
+        <v>0.63965000000000005</v>
       </c>
       <c r="AG11">
-        <v>0.65359999999999996</v>
+        <v>0.65475000000000005</v>
       </c>
       <c r="AH11">
-        <v>0.63505</v>
+        <v>0.65525</v>
       </c>
       <c r="AI11">
-        <v>0.68235000000000001</v>
+        <v>0.66774999999999995</v>
       </c>
       <c r="AJ11">
-        <v>0.6724</v>
+        <v>0.63570000000000004</v>
       </c>
       <c r="AK11">
-        <v>0.64229999999999998</v>
+        <v>0.65785000000000005</v>
       </c>
       <c r="AL11">
-        <v>0.62350000000000005</v>
+        <v>0.6139</v>
       </c>
       <c r="AM11">
-        <v>0.63585000000000003</v>
+        <v>0.65364999999999995</v>
       </c>
       <c r="AN11">
-        <v>0.62870000000000004</v>
+        <v>0.64054999999999995</v>
       </c>
       <c r="AO11">
-        <v>0.62150000000000005</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="AP11">
-        <v>0.64254999999999995</v>
+        <v>0.63419999999999999</v>
       </c>
       <c r="AQ11">
-        <v>0.66059999999999997</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="AR11">
-        <v>0.62285000000000001</v>
+        <v>0.63949999999999996</v>
       </c>
       <c r="AS11">
-        <v>0.63915</v>
+        <v>0.65925</v>
       </c>
       <c r="AT11">
-        <v>0.67589999999999995</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="AU11">
-        <v>0.62739999999999996</v>
+        <v>0.58355000000000001</v>
       </c>
       <c r="AV11">
-        <v>0.69699999999999995</v>
+        <v>0.66374999999999995</v>
       </c>
       <c r="AW11">
-        <v>0.60640000000000005</v>
+        <v>0.62824999999999998</v>
       </c>
       <c r="AX11">
-        <v>0.67645</v>
+        <v>0.66249999999999998</v>
       </c>
     </row>
   </sheetData>
